--- a/lab5/data.xlsx
+++ b/lab5/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="11950" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>问题规模</t>
   </si>
@@ -650,12 +650,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,125 +968,480 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.9090909090909" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5454545454545" style="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="11.7272727272727" style="1"/>
+    <col min="5" max="7" width="9.54545454545454" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="C1" s="1">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1">
+        <v>256</v>
+      </c>
+      <c r="F1" s="1">
+        <v>512</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2">
-        <v>40</v>
+      <c r="B2" s="1">
+        <v>0.04</v>
       </c>
       <c r="C2" s="1">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+        <v>0.36448</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.360416</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.347328</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.44125</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.351424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3" s="2">
-        <v>325</v>
+      <c r="B3" s="1">
+        <v>0.325</v>
       </c>
       <c r="C3" s="1">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+        <v>0.893056</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.87312</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.892032</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.8704</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.880512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4" s="2">
-        <v>2188</v>
+      <c r="B4" s="1">
+        <v>2.188</v>
       </c>
       <c r="C4" s="1">
-        <v>5079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
+        <v>4.66982</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.89062</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.92394</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.97549</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.94925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5" s="2">
-        <v>15568</v>
+      <c r="B5" s="1">
+        <v>15.568</v>
       </c>
       <c r="C5" s="1">
-        <v>29210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+        <v>16.5539</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.9835</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26.6504</v>
+      </c>
+      <c r="F5" s="1">
+        <v>26.8514</v>
+      </c>
+      <c r="G5" s="1">
+        <v>26.5151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>512</v>
       </c>
-      <c r="B6" s="2">
-        <v>140059</v>
+      <c r="B6" s="1">
+        <v>140.059</v>
       </c>
       <c r="C6" s="1">
-        <v>136998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+        <v>55.1891</v>
+      </c>
+      <c r="D6" s="1">
+        <v>75.4997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>133.426</v>
+      </c>
+      <c r="F6" s="1">
+        <v>180.786</v>
+      </c>
+      <c r="G6" s="1">
+        <v>182.786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>1024</v>
       </c>
-      <c r="B7" s="2">
-        <v>1139062</v>
+      <c r="B7" s="1">
+        <v>1139.062</v>
       </c>
       <c r="C7" s="1">
-        <v>602938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+        <v>296.726</v>
+      </c>
+      <c r="D7" s="1">
+        <v>367.794</v>
+      </c>
+      <c r="E7" s="1">
+        <v>571.8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>984.903</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1487.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>2048</v>
       </c>
-      <c r="B8" s="2">
-        <v>9196672</v>
+      <c r="B8" s="1">
+        <v>9196.672</v>
       </c>
       <c r="C8" s="1">
-        <v>2952743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2043.88</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2251.85</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2902.44</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4501</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8675.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
       <c r="B9" s="1">
-        <v>68115675</v>
+        <v>68115.675</v>
       </c>
       <c r="C9" s="1">
-        <v>17584624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>14425.7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15425.9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>16773</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19282</v>
+      </c>
+      <c r="G9" s="1">
+        <v>36638.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8192</v>
       </c>
       <c r="B10" s="1">
-        <v>537561435</v>
+        <v>537561.435</v>
       </c>
       <c r="C10" s="1">
-        <v>122688426</v>
+        <v>109409</v>
+      </c>
+      <c r="D10" s="1">
+        <v>111184</v>
+      </c>
+      <c r="E10" s="1">
+        <v>116790</v>
+      </c>
+      <c r="F10" s="1">
+        <v>120664</v>
+      </c>
+      <c r="G10" s="1">
+        <v>154075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1">
+        <v>128</v>
+      </c>
+      <c r="E13" s="1">
+        <v>256</v>
+      </c>
+      <c r="F13" s="1">
+        <v>512</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.308736</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.294624</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.291072</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.39594</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.292768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.627744</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.60416</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.597056</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.602016</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.598944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>128</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.35872</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.37408</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.3792</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.26202</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.28451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>256</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.71056</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.97258</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.2239</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.23645</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.18349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>512</v>
+      </c>
+      <c r="B18" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12.0607</v>
+      </c>
+      <c r="D18" s="1">
+        <v>13.1307</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17.1272</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20.8085</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20.7794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="C19" s="1">
+        <v>26.6417</v>
+      </c>
+      <c r="D19" s="1">
+        <v>34.7796</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50.1558</v>
+      </c>
+      <c r="F19" s="1">
+        <v>80.1388</v>
+      </c>
+      <c r="G19" s="1">
+        <v>127.435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="C20" s="1">
+        <v>76.4122</v>
+      </c>
+      <c r="D20" s="1">
+        <v>106.711</v>
+      </c>
+      <c r="E20" s="1">
+        <v>172.323</v>
+      </c>
+      <c r="F20" s="1">
+        <v>314.931</v>
+      </c>
+      <c r="G20" s="1">
+        <v>665.033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B21" s="1">
+        <v>68115.675</v>
+      </c>
+      <c r="C21" s="1">
+        <v>235.68</v>
+      </c>
+      <c r="D21" s="1">
+        <v>370.07</v>
+      </c>
+      <c r="E21" s="1">
+        <v>644.931</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1240.62</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2749.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B22" s="1">
+        <v>537561.435</v>
+      </c>
+      <c r="C22" s="1">
+        <v>835.28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1349.34</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2394.45</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4786.14</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10853.9</v>
       </c>
     </row>
   </sheetData>

--- a/lab5/data.xlsx
+++ b/lab5/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11950" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>问题规模</t>
   </si>
   <si>
     <t>串行</t>
+  </si>
+  <si>
+    <t>再优化256</t>
+  </si>
+  <si>
+    <t>策略A</t>
+  </si>
+  <si>
+    <t>策略B</t>
   </si>
 </sst>
 </file>
@@ -968,20 +977,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10.9090909090909" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5454545454545" style="1"/>
     <col min="4" max="4" width="11.7272727272727" style="1"/>
     <col min="5" max="7" width="9.54545454545454" style="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9.54545454545454" style="1"/>
+    <col min="11" max="11" width="11.7272727272727" style="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1214,7 +1227,7 @@
         <v>154075</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,8 +1249,11 @@
       <c r="G13" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="J13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>32</v>
       </c>
@@ -1259,8 +1275,11 @@
       <c r="G14" s="1">
         <v>0.292768</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14" s="1">
+        <v>0.309664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>64</v>
       </c>
@@ -1282,8 +1301,11 @@
       <c r="G15" s="1">
         <v>0.598944</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15" s="1">
+        <v>0.622629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>128</v>
       </c>
@@ -1305,8 +1327,11 @@
       <c r="G16" s="1">
         <v>1.28451</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" s="1">
+        <v>3.43341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>256</v>
       </c>
@@ -1328,8 +1353,11 @@
       <c r="G17" s="1">
         <v>5.18349</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17" s="1">
+        <v>7.7504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>512</v>
       </c>
@@ -1351,8 +1379,11 @@
       <c r="G18" s="1">
         <v>20.7794</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18" s="1">
+        <v>21.7166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>1024</v>
       </c>
@@ -1374,8 +1405,11 @@
       <c r="G19" s="1">
         <v>127.435</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19" s="1">
+        <v>147.325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>2048</v>
       </c>
@@ -1397,8 +1431,11 @@
       <c r="G20" s="1">
         <v>665.033</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20" s="1">
+        <v>753.903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>4096</v>
       </c>
@@ -1420,8 +1457,11 @@
       <c r="G21" s="1">
         <v>2749.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21" s="1">
+        <v>3718.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>8192</v>
       </c>
@@ -1442,6 +1482,239 @@
       </c>
       <c r="G22" s="1">
         <v>10853.9</v>
+      </c>
+      <c r="J22" s="1">
+        <v>9511.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.347328</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.291072</v>
+      </c>
+      <c r="J27" s="1">
+        <v>32</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.291072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.892032</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.597056</v>
+      </c>
+      <c r="J28" s="1">
+        <v>64</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.597056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4.92394</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.3792</v>
+      </c>
+      <c r="J29" s="1">
+        <v>128</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3.3792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>256</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26.6504</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.2239</v>
+      </c>
+      <c r="J30" s="1">
+        <v>256</v>
+      </c>
+      <c r="K30" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="L30" s="1">
+        <v>5.2239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>512</v>
+      </c>
+      <c r="B31" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="C31" s="1">
+        <v>133.426</v>
+      </c>
+      <c r="D31" s="1">
+        <v>17.1272</v>
+      </c>
+      <c r="J31" s="1">
+        <v>512</v>
+      </c>
+      <c r="K31" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="L31" s="1">
+        <v>17.1272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="C32" s="1">
+        <v>571.8</v>
+      </c>
+      <c r="D32" s="1">
+        <v>50.1558</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1024</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="L32" s="1">
+        <v>50.1558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2902.44</v>
+      </c>
+      <c r="D33" s="1">
+        <v>172.323</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2048</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="L33" s="1">
+        <v>172.323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B34" s="1">
+        <v>68115.675</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16773</v>
+      </c>
+      <c r="D34" s="1">
+        <v>644.931</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4096</v>
+      </c>
+      <c r="K34" s="1">
+        <v>68115.675</v>
+      </c>
+      <c r="L34" s="1">
+        <v>644.931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B35" s="1">
+        <v>537561.435</v>
+      </c>
+      <c r="C35" s="1">
+        <v>116790</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2394.45</v>
+      </c>
+      <c r="J35" s="1">
+        <v>8192</v>
+      </c>
+      <c r="K35" s="1">
+        <v>537561.435</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2394.45</v>
       </c>
     </row>
   </sheetData>

--- a/lab5/data.xlsx
+++ b/lab5/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>问题规模</t>
   </si>
@@ -43,7 +43,19 @@
     <t>策略A</t>
   </si>
   <si>
+    <t>策略A加速比</t>
+  </si>
+  <si>
     <t>策略B</t>
+  </si>
+  <si>
+    <t>策略B加速比</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>加速比</t>
   </si>
 </sst>
 </file>
@@ -977,10 +989,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1487,7 +1499,7 @@
         <v>9511.98</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,17 +1512,26 @@
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="J26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="L26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>32</v>
       </c>
@@ -1521,7 +1542,13 @@
         <v>0.347328</v>
       </c>
       <c r="D27" s="1">
+        <v>0.1152</v>
+      </c>
+      <c r="E27" s="1">
         <v>0.291072</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.1374</v>
       </c>
       <c r="J27" s="1">
         <v>32</v>
@@ -1532,8 +1559,11 @@
       <c r="L27" s="1">
         <v>0.291072</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="1">
+        <v>0.1374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>64</v>
       </c>
@@ -1544,7 +1574,13 @@
         <v>0.892032</v>
       </c>
       <c r="D28" s="1">
+        <v>0.3645</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.597056</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.5443</v>
       </c>
       <c r="J28" s="1">
         <v>64</v>
@@ -1555,8 +1591,11 @@
       <c r="L28" s="1">
         <v>0.597056</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="1">
+        <v>0.5443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>128</v>
       </c>
@@ -1567,7 +1606,13 @@
         <v>4.92394</v>
       </c>
       <c r="D29" s="1">
+        <v>0.4445</v>
+      </c>
+      <c r="E29" s="1">
         <v>3.3792</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.6475</v>
       </c>
       <c r="J29" s="1">
         <v>128</v>
@@ -1578,8 +1623,11 @@
       <c r="L29" s="1">
         <v>3.3792</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="1">
+        <v>0.6475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>256</v>
       </c>
@@ -1590,7 +1638,13 @@
         <v>26.6504</v>
       </c>
       <c r="D30" s="1">
+        <v>0.5843</v>
+      </c>
+      <c r="E30" s="1">
         <v>5.2239</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.98</v>
       </c>
       <c r="J30" s="1">
         <v>256</v>
@@ -1601,8 +1655,11 @@
       <c r="L30" s="1">
         <v>5.2239</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>512</v>
       </c>
@@ -1613,7 +1670,13 @@
         <v>133.426</v>
       </c>
       <c r="D31" s="1">
+        <v>1.0497</v>
+      </c>
+      <c r="E31" s="1">
         <v>17.1272</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8.1776</v>
       </c>
       <c r="J31" s="1">
         <v>512</v>
@@ -1624,8 +1687,11 @@
       <c r="L31" s="1">
         <v>17.1272</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="1">
+        <v>8.1776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>1024</v>
       </c>
@@ -1636,7 +1702,13 @@
         <v>571.8</v>
       </c>
       <c r="D32" s="1">
+        <v>1.9917</v>
+      </c>
+      <c r="E32" s="1">
         <v>50.1558</v>
+      </c>
+      <c r="F32" s="1">
+        <v>22.71</v>
       </c>
       <c r="J32" s="1">
         <v>1024</v>
@@ -1647,8 +1719,11 @@
       <c r="L32" s="1">
         <v>50.1558</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="1">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>2048</v>
       </c>
@@ -1659,7 +1734,13 @@
         <v>2902.44</v>
       </c>
       <c r="D33" s="1">
+        <v>3.1683</v>
+      </c>
+      <c r="E33" s="1">
         <v>172.323</v>
+      </c>
+      <c r="F33" s="1">
+        <v>53.3688</v>
       </c>
       <c r="J33" s="1">
         <v>2048</v>
@@ -1670,8 +1751,11 @@
       <c r="L33" s="1">
         <v>172.323</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="1">
+        <v>53.3688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>4096</v>
       </c>
@@ -1682,7 +1766,13 @@
         <v>16773</v>
       </c>
       <c r="D34" s="1">
+        <v>4.0636</v>
+      </c>
+      <c r="E34" s="1">
         <v>644.931</v>
+      </c>
+      <c r="F34" s="1">
+        <v>105.617</v>
       </c>
       <c r="J34" s="1">
         <v>4096</v>
@@ -1693,8 +1783,11 @@
       <c r="L34" s="1">
         <v>644.931</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="1">
+        <v>105.617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>8192</v>
       </c>
@@ -1705,7 +1798,13 @@
         <v>116790</v>
       </c>
       <c r="D35" s="1">
+        <v>4.6016</v>
+      </c>
+      <c r="E35" s="1">
         <v>2394.45</v>
+      </c>
+      <c r="F35" s="1">
+        <v>224.5</v>
       </c>
       <c r="J35" s="1">
         <v>8192</v>
@@ -1715,6 +1814,9 @@
       </c>
       <c r="L35" s="1">
         <v>2394.45</v>
+      </c>
+      <c r="M35" s="1">
+        <v>224.5</v>
       </c>
     </row>
   </sheetData>
